--- a/GRE.xlsx
+++ b/GRE.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="词以类记" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -39,6 +40,15 @@
   </si>
   <si>
     <t>GRE (Baihan Lin)</t>
+  </si>
+  <si>
+    <t>浪费</t>
+  </si>
+  <si>
+    <t>extravagance</t>
+  </si>
+  <si>
+    <t>footle</t>
   </si>
 </sst>
 </file>
@@ -373,9 +383,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/GRE.xlsx
+++ b/GRE.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,528 @@
   </si>
   <si>
     <t>footle</t>
+  </si>
+  <si>
+    <t>lavish</t>
+  </si>
+  <si>
+    <t>luxurious</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>plush</t>
+  </si>
+  <si>
+    <t>profuse</t>
+  </si>
+  <si>
+    <t>prodigal</t>
+  </si>
+  <si>
+    <t>profligacy</t>
+  </si>
+  <si>
+    <t>splurge</t>
+  </si>
+  <si>
+    <t>squander</t>
+  </si>
+  <si>
+    <t>sumptuous</t>
+  </si>
+  <si>
+    <t>confiscate</t>
+  </si>
+  <si>
+    <t>expropriate</t>
+  </si>
+  <si>
+    <t>forfeit</t>
+  </si>
+  <si>
+    <t>sequestrate</t>
+  </si>
+  <si>
+    <t>deprive</t>
+  </si>
+  <si>
+    <t>unnerve</t>
+  </si>
+  <si>
+    <t>annihilate</t>
+  </si>
+  <si>
+    <t>arrogate</t>
+  </si>
+  <si>
+    <t>bereave</t>
+  </si>
+  <si>
+    <t>bereft</t>
+  </si>
+  <si>
+    <t>counteract</t>
+  </si>
+  <si>
+    <t>deforest</t>
+  </si>
+  <si>
+    <t>deforestation</t>
+  </si>
+  <si>
+    <t>denude</t>
+  </si>
+  <si>
+    <t>depredation</t>
+  </si>
+  <si>
+    <t>掠夺</t>
+  </si>
+  <si>
+    <t>deprivation</t>
+  </si>
+  <si>
+    <t>deracinate</t>
+  </si>
+  <si>
+    <t>despoil</t>
+  </si>
+  <si>
+    <t>disfranchise</t>
+  </si>
+  <si>
+    <t>divest</t>
+  </si>
+  <si>
+    <t>divestiture</t>
+  </si>
+  <si>
+    <t>enclosure</t>
+  </si>
+  <si>
+    <t>encoroach</t>
+  </si>
+  <si>
+    <t>exterminate</t>
+  </si>
+  <si>
+    <t>extinct</t>
+  </si>
+  <si>
+    <t>extirpation</t>
+  </si>
+  <si>
+    <t>inalienable</t>
+  </si>
+  <si>
+    <t>irradicable</t>
+  </si>
+  <si>
+    <t>juggernaut</t>
+  </si>
+  <si>
+    <t>maraud</t>
+  </si>
+  <si>
+    <t>monopolize</t>
+  </si>
+  <si>
+    <t>monopoly</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>pillage</t>
+  </si>
+  <si>
+    <t>plunder</t>
+  </si>
+  <si>
+    <t>rapacious</t>
+  </si>
+  <si>
+    <t>rapacity</t>
+  </si>
+  <si>
+    <t>ravish</t>
+  </si>
+  <si>
+    <t>ravishment</t>
+  </si>
+  <si>
+    <t>scramble</t>
+  </si>
+  <si>
+    <t>掠夺，攀登</t>
+  </si>
+  <si>
+    <t>狂喜，陶醉</t>
+  </si>
+  <si>
+    <t>undercut</t>
+  </si>
+  <si>
+    <t>unfrock</t>
+  </si>
+  <si>
+    <t>usurp</t>
+  </si>
+  <si>
+    <t>disenfranchise</t>
+  </si>
+  <si>
+    <t>embezzle</t>
+  </si>
+  <si>
+    <t>encroachment</t>
+  </si>
+  <si>
+    <t>enclave</t>
+  </si>
+  <si>
+    <t>溺爱</t>
+  </si>
+  <si>
+    <t>affection</t>
+  </si>
+  <si>
+    <t>brattish</t>
+  </si>
+  <si>
+    <t>coddle</t>
+  </si>
+  <si>
+    <t>cosset</t>
+  </si>
+  <si>
+    <t>doting</t>
+  </si>
+  <si>
+    <t>enamored</t>
+  </si>
+  <si>
+    <t>philanthropic</t>
+  </si>
+  <si>
+    <t>unspoiled</t>
+  </si>
+  <si>
+    <t>uxorious</t>
+  </si>
+  <si>
+    <t>欺骗</t>
+  </si>
+  <si>
+    <t>bamboozle</t>
+  </si>
+  <si>
+    <t>beguile</t>
+  </si>
+  <si>
+    <t>cajole</t>
+  </si>
+  <si>
+    <t>canard</t>
+  </si>
+  <si>
+    <t>chisel</t>
+  </si>
+  <si>
+    <t>coax</t>
+  </si>
+  <si>
+    <t>cozen</t>
+  </si>
+  <si>
+    <t>deceit</t>
+  </si>
+  <si>
+    <t>canary</t>
+  </si>
+  <si>
+    <t>金丝雀</t>
+  </si>
+  <si>
+    <t>deception</t>
+  </si>
+  <si>
+    <t>decoy</t>
+  </si>
+  <si>
+    <t>defraud</t>
+  </si>
+  <si>
+    <t>delude</t>
+  </si>
+  <si>
+    <t>delusion</t>
+  </si>
+  <si>
+    <t>falsehood</t>
+  </si>
+  <si>
+    <t>falsify</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>gerrymander</t>
+  </si>
+  <si>
+    <t>gimmick</t>
+  </si>
+  <si>
+    <t>gullible</t>
+  </si>
+  <si>
+    <t>hearsay</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>hoodwink</t>
+  </si>
+  <si>
+    <t>imposture</t>
+  </si>
+  <si>
+    <t>mendacious</t>
+  </si>
+  <si>
+    <t>prevaricate</t>
+  </si>
+  <si>
+    <t>purported</t>
+  </si>
+  <si>
+    <t>rig</t>
+  </si>
+  <si>
+    <t>swindle</t>
+  </si>
+  <si>
+    <t>temptation</t>
+  </si>
+  <si>
+    <t>wangle</t>
+  </si>
+  <si>
+    <t>trickster</t>
+  </si>
+  <si>
+    <t>wheedle</t>
+  </si>
+  <si>
+    <t>entrap</t>
+  </si>
+  <si>
+    <t>tweedle</t>
+  </si>
+  <si>
+    <t>鸟鸣</t>
+  </si>
+  <si>
+    <t>delusive</t>
+  </si>
+  <si>
+    <t>敲诈</t>
+  </si>
+  <si>
+    <t>abduct</t>
+  </si>
+  <si>
+    <t>blackmail</t>
+  </si>
+  <si>
+    <t>extort</t>
+  </si>
+  <si>
+    <t>gouge</t>
+  </si>
+  <si>
+    <t>mulct</t>
+  </si>
+  <si>
+    <t>辱骂</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>abusive</t>
+  </si>
+  <si>
+    <t>execrate</t>
+  </si>
+  <si>
+    <t>hurl</t>
+  </si>
+  <si>
+    <t>oath</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>revile</t>
+  </si>
+  <si>
+    <t>vituperate</t>
+  </si>
+  <si>
+    <t>vituperative</t>
+  </si>
+  <si>
+    <t>expletive</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>bruise</t>
+  </si>
+  <si>
+    <t>dislocate</t>
+  </si>
+  <si>
+    <t>internecine</t>
+  </si>
+  <si>
+    <t>maim</t>
+  </si>
+  <si>
+    <t>scab</t>
+  </si>
+  <si>
+    <t>scar</t>
+  </si>
+  <si>
+    <t>sprain</t>
+  </si>
+  <si>
+    <t>incursion</t>
+  </si>
+  <si>
+    <t>detrimental</t>
+  </si>
+  <si>
+    <t>trauma</t>
+  </si>
+  <si>
+    <t>contusion</t>
+  </si>
+  <si>
+    <t>welt</t>
+  </si>
+  <si>
+    <t>adulterate</t>
+  </si>
+  <si>
+    <t>伪造</t>
+  </si>
+  <si>
+    <t>apocryphal</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>bogus</t>
+  </si>
+  <si>
+    <t>concoct</t>
+  </si>
+  <si>
+    <t>counterfeit</t>
+  </si>
+  <si>
+    <t>ersatz</t>
+  </si>
+  <si>
+    <t>fabricate</t>
+  </si>
+  <si>
+    <t>factitious</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>fictitious</t>
+  </si>
+  <si>
+    <t>forge</t>
+  </si>
+  <si>
+    <t>forgery</t>
+  </si>
+  <si>
+    <t>mendacity</t>
+  </si>
+  <si>
+    <t>phony</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>sham</t>
+  </si>
+  <si>
+    <t>skullduggery</t>
+  </si>
+  <si>
+    <t>spurious</t>
+  </si>
+  <si>
+    <t>侮辱</t>
+  </si>
+  <si>
+    <t>affront</t>
+  </si>
+  <si>
+    <t>blasphemous</t>
+  </si>
+  <si>
+    <t>desecrate</t>
+  </si>
+  <si>
+    <t>hector</t>
+  </si>
+  <si>
+    <t>humiliate</t>
+  </si>
+  <si>
+    <t>ignominy</t>
+  </si>
+  <si>
+    <t>indignity</t>
+  </si>
+  <si>
+    <t>mortification</t>
+  </si>
+  <si>
+    <t>offend</t>
+  </si>
+  <si>
+    <t>伴随</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>concomitant</t>
+  </si>
+  <si>
+    <t>chaperon</t>
+  </si>
+  <si>
+    <t>benzhi1</t>
   </si>
 </sst>
 </file>
@@ -100,12 +622,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
+  <dimension ref="B3:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="209" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -400,8 +923,1296 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>148</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>167</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>177</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>177</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/GRE.xlsx
+++ b/GRE.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="词以类记" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="plan" sheetId="1" r:id="rId2"/>
+    <sheet name="saying" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="288">
   <si>
     <t>Date</t>
   </si>
@@ -570,7 +571,325 @@
     <t>chaperon</t>
   </si>
   <si>
-    <t>benzhi1</t>
+    <t>本质</t>
+  </si>
+  <si>
+    <t>texture</t>
+  </si>
+  <si>
+    <t>inherent</t>
+  </si>
+  <si>
+    <t>plasticity</t>
+  </si>
+  <si>
+    <t>idiosyncrasy</t>
+  </si>
+  <si>
+    <t>kismet</t>
+  </si>
+  <si>
+    <t>命运</t>
+  </si>
+  <si>
+    <t>情感</t>
+  </si>
+  <si>
+    <t>commemorate</t>
+  </si>
+  <si>
+    <t>commemorative</t>
+  </si>
+  <si>
+    <t>emote</t>
+  </si>
+  <si>
+    <t>nostalgia</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>amorous</t>
+  </si>
+  <si>
+    <t>inerrancy</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>inevitable</t>
+  </si>
+  <si>
+    <t>infallible</t>
+  </si>
+  <si>
+    <t>affirm</t>
+  </si>
+  <si>
+    <t>assured</t>
+  </si>
+  <si>
+    <t>aver</t>
+  </si>
+  <si>
+    <t>certainty</t>
+  </si>
+  <si>
+    <t>certitude</t>
+  </si>
+  <si>
+    <t>conclusive</t>
+  </si>
+  <si>
+    <t>determinant</t>
+  </si>
+  <si>
+    <t>determination</t>
+  </si>
+  <si>
+    <t>discretionary</t>
+  </si>
+  <si>
+    <t>entrench</t>
+  </si>
+  <si>
+    <t>incertitude</t>
+  </si>
+  <si>
+    <t>indeterminate</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>positiveness</t>
+  </si>
+  <si>
+    <t>predestine</t>
+  </si>
+  <si>
+    <t>putative</t>
+  </si>
+  <si>
+    <t>settle</t>
+  </si>
+  <si>
+    <t>shiftless</t>
+  </si>
+  <si>
+    <t>verdict</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>affirmation</t>
+  </si>
+  <si>
+    <t>determinate</t>
+  </si>
+  <si>
+    <t>首尾</t>
+  </si>
+  <si>
+    <t>prefatory</t>
+  </si>
+  <si>
+    <t>gambit</t>
+  </si>
+  <si>
+    <t>peroration</t>
+  </si>
+  <si>
+    <t>precedent</t>
+  </si>
+  <si>
+    <t>primordial</t>
+  </si>
+  <si>
+    <t>primacy</t>
+  </si>
+  <si>
+    <t>hindmost</t>
+  </si>
+  <si>
+    <t>regicide</t>
+  </si>
+  <si>
+    <t>屠杀</t>
+  </si>
+  <si>
+    <t>循环</t>
+  </si>
+  <si>
+    <t>circulate</t>
+  </si>
+  <si>
+    <t>circulation</t>
+  </si>
+  <si>
+    <t>cyclical</t>
+  </si>
+  <si>
+    <t>sabbatical</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>onus</t>
+  </si>
+  <si>
+    <t>accountability</t>
+  </si>
+  <si>
+    <t>behoove</t>
+  </si>
+  <si>
+    <t>irresponsible</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>benediction</t>
+  </si>
+  <si>
+    <t>benison</t>
+  </si>
+  <si>
+    <t>congratulation</t>
+  </si>
+  <si>
+    <t>advent</t>
+  </si>
+  <si>
+    <t>ingress</t>
+  </si>
+  <si>
+    <t>nomadic</t>
+  </si>
+  <si>
+    <t>prize</t>
+  </si>
+  <si>
+    <t>expenditure</t>
+  </si>
+  <si>
+    <t>beeline</t>
+  </si>
+  <si>
+    <t>acclimate</t>
+  </si>
+  <si>
+    <t>retention</t>
+  </si>
+  <si>
+    <t>seascape</t>
+  </si>
+  <si>
+    <t>topsoil</t>
+  </si>
+  <si>
+    <t>unplumbed</t>
+  </si>
+  <si>
+    <t>albeit</t>
+  </si>
+  <si>
+    <t>incur</t>
+  </si>
+  <si>
+    <t>leeway</t>
+  </si>
+  <si>
+    <t>余地</t>
+  </si>
+  <si>
+    <t>招惹</t>
+  </si>
+  <si>
+    <t>虽然</t>
+  </si>
+  <si>
+    <t>未深究</t>
+  </si>
+  <si>
+    <t>表层土</t>
+  </si>
+  <si>
+    <t>海景</t>
+  </si>
+  <si>
+    <t>保持</t>
+  </si>
+  <si>
+    <t>使适应</t>
+  </si>
+  <si>
+    <t>直线</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>珍视</t>
+  </si>
+  <si>
+    <t>游牧</t>
+  </si>
+  <si>
+    <t>进入</t>
+  </si>
+  <si>
+    <t>到来</t>
+  </si>
+  <si>
+    <t>流明</t>
+  </si>
+  <si>
+    <t>lumen</t>
+  </si>
+  <si>
+    <t>eclectic</t>
+  </si>
+  <si>
+    <t>折中的</t>
+  </si>
+  <si>
+    <t>依偎</t>
+  </si>
+  <si>
+    <t>nestle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最新型</t>
+  </si>
+  <si>
+    <t>streamlined</t>
+  </si>
+  <si>
+    <t>regimentation</t>
+  </si>
+  <si>
+    <t>egocentric</t>
+  </si>
+  <si>
+    <t>利己</t>
+  </si>
+  <si>
+    <t>系统化</t>
+  </si>
+  <si>
+    <t>R.Browning.</t>
+  </si>
+  <si>
+    <t>When the fight begins within himself, a man's worth something.</t>
   </si>
 </sst>
 </file>
@@ -906,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C165"/>
+  <dimension ref="B3:C240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="209" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView topLeftCell="A224" zoomScale="209" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2213,6 +2532,609 @@
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>181</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>188</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>188</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>188</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>188</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>196</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>196</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>196</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>196</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>196</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>196</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>196</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>196</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>196</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>196</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>196</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>196</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>196</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>221</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>221</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>221</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>221</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>221</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>221</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>230</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>231</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>231</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>231</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>231</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>236</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>236</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>236</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>236</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>242</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>242</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>273</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>272</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>271</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>270</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>269</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>268</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>267</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>266</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>265</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>264</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>263</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>262</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>261</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>260</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>274</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>277</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>278</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>280</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>285</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>284</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2603,4 +3525,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GRE.xlsx
+++ b/GRE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="词以类记" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="381">
   <si>
     <t>Date</t>
   </si>
@@ -151,9 +151,6 @@
     <t>enclosure</t>
   </si>
   <si>
-    <t>encoroach</t>
-  </si>
-  <si>
     <t>exterminate</t>
   </si>
   <si>
@@ -890,6 +887,288 @@
   </si>
   <si>
     <t>When the fight begins within himself, a man's worth something.</t>
+  </si>
+  <si>
+    <t>encroach</t>
+  </si>
+  <si>
+    <t>改变</t>
+  </si>
+  <si>
+    <t>remodel</t>
+  </si>
+  <si>
+    <t>ecast</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>commute</t>
+  </si>
+  <si>
+    <t>divert</t>
+  </si>
+  <si>
+    <t>incorrigibilty</t>
+  </si>
+  <si>
+    <t>tractability</t>
+  </si>
+  <si>
+    <t>温顺</t>
+  </si>
+  <si>
+    <t>renovate</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>restored</t>
+  </si>
+  <si>
+    <t>restoration</t>
+  </si>
+  <si>
+    <t>shunt</t>
+  </si>
+  <si>
+    <t>snip</t>
+  </si>
+  <si>
+    <t>swerve</t>
+  </si>
+  <si>
+    <t>contortion</t>
+  </si>
+  <si>
+    <t>diversion</t>
+  </si>
+  <si>
+    <t>revert</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>reassure</t>
+  </si>
+  <si>
+    <t>backslide</t>
+  </si>
+  <si>
+    <t>rehabilitate</t>
+  </si>
+  <si>
+    <t>rehabilitative</t>
+  </si>
+  <si>
+    <t>reinstate</t>
+  </si>
+  <si>
+    <t>recuperative</t>
+  </si>
+  <si>
+    <t>rejuvenate</t>
+  </si>
+  <si>
+    <t>renascent</t>
+  </si>
+  <si>
+    <t>resilient</t>
+  </si>
+  <si>
+    <t>resurge</t>
+  </si>
+  <si>
+    <t>reversion</t>
+  </si>
+  <si>
+    <t>throwback</t>
+  </si>
+  <si>
+    <t>减少</t>
+  </si>
+  <si>
+    <t>abate</t>
+  </si>
+  <si>
+    <t>abbreviate</t>
+  </si>
+  <si>
+    <t>abrade</t>
+  </si>
+  <si>
+    <t>abridge</t>
+  </si>
+  <si>
+    <t>curtial</t>
+  </si>
+  <si>
+    <t>damped</t>
+  </si>
+  <si>
+    <t>deaden</t>
+  </si>
+  <si>
+    <t>debilitate</t>
+  </si>
+  <si>
+    <t>decline</t>
+  </si>
+  <si>
+    <t>deduct</t>
+  </si>
+  <si>
+    <t>diminuendo</t>
+  </si>
+  <si>
+    <t>dock</t>
+  </si>
+  <si>
+    <t>dwindle</t>
+  </si>
+  <si>
+    <t>impair</t>
+  </si>
+  <si>
+    <t>implode</t>
+  </si>
+  <si>
+    <t>languish</t>
+  </si>
+  <si>
+    <t>minimize</t>
+  </si>
+  <si>
+    <t>muffle</t>
+  </si>
+  <si>
+    <t>muffled</t>
+  </si>
+  <si>
+    <t>muffler</t>
+  </si>
+  <si>
+    <t>muted</t>
+  </si>
+  <si>
+    <t>pare</t>
+  </si>
+  <si>
+    <t>permute</t>
+  </si>
+  <si>
+    <t>relent</t>
+  </si>
+  <si>
+    <t>relenting</t>
+  </si>
+  <si>
+    <t>retard</t>
+  </si>
+  <si>
+    <t>retrenchment</t>
+  </si>
+  <si>
+    <t>subdue</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>taper</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>underplay</t>
+  </si>
+  <si>
+    <t>vitiate</t>
+  </si>
+  <si>
+    <t>wane</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>whittle</t>
+  </si>
+  <si>
+    <t>diminish</t>
+  </si>
+  <si>
+    <t>decelerate</t>
+  </si>
+  <si>
+    <t>bate</t>
+  </si>
+  <si>
+    <t>attenuate</t>
+  </si>
+  <si>
+    <t>blunt</t>
+  </si>
+  <si>
+    <t>loosen</t>
+  </si>
+  <si>
+    <t>mash</t>
+  </si>
+  <si>
+    <t>nucleate</t>
+  </si>
+  <si>
+    <t>prolong</t>
+  </si>
+  <si>
+    <t>protract</t>
+  </si>
+  <si>
+    <t>elongate</t>
+  </si>
+  <si>
+    <t>extend</t>
+  </si>
+  <si>
+    <t>purse</t>
+  </si>
+  <si>
+    <t>stratify</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>unfold</t>
+  </si>
+  <si>
+    <t>metamorphosis</t>
+  </si>
+  <si>
+    <t>rarefy</t>
+  </si>
+  <si>
+    <t>形变</t>
+  </si>
+  <si>
+    <t>撅起</t>
+  </si>
+  <si>
+    <t>增加</t>
+  </si>
+  <si>
+    <t>accrete</t>
+  </si>
+  <si>
+    <t>accretion</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C240"/>
+  <dimension ref="B3:C326"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" zoomScale="209" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1789,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -1518,7 +1797,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -1526,7 +1805,7 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
@@ -1534,7 +1813,7 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -1542,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
@@ -1550,7 +1829,7 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
@@ -1558,7 +1837,7 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -1566,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
@@ -1574,7 +1853,7 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
@@ -1582,7 +1861,7 @@
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -1590,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
@@ -1598,7 +1877,7 @@
         <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -1606,7 +1885,7 @@
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -1614,7 +1893,7 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
@@ -1622,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -1630,23 +1909,23 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
@@ -1654,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
@@ -1662,7 +1941,7 @@
         <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -1670,7 +1949,7 @@
         <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -1678,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
@@ -1686,7 +1965,7 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
@@ -1694,7 +1973,7 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
@@ -1702,1439 +1981,1914 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
         <v>68</v>
-      </c>
-      <c r="C62" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
         <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
         <v>117</v>
-      </c>
-      <c r="C107" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
         <v>123</v>
-      </c>
-      <c r="C112" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
+        <v>187</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
+        <v>195</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
+        <v>220</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
+        <v>230</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
+        <v>235</v>
+      </c>
+      <c r="C213" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
+        <v>241</v>
+      </c>
+      <c r="C218" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
+        <v>273</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
+        <v>277</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
+        <v>279</v>
+      </c>
+      <c r="C238" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>288</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>288</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>288</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>288</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>288</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>288</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>288</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>297</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>288</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C250" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C251" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C252" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C253" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C254" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C255" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C256" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C257" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>308</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C259" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C260" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C261" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C262" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C263" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C264" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C265" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C266" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C267" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C268" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C269" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C270" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>321</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C272" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C305" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C306" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C307" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C308" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C309" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C310" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>376</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C312" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C313" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C314" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C315" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C316" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C317" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C318" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>377</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>376</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C321" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C322" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C323" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C324" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>378</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C326" s="5" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3531,18 +4285,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
         <v>286</v>
-      </c>
-      <c r="C2" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/GRE.xlsx
+++ b/GRE.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="488">
   <si>
     <t>Date</t>
   </si>
@@ -1169,6 +1169,327 @@
   </si>
   <si>
     <t>accretion</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>augmentation</t>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>upswing</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>footloose</t>
+  </si>
+  <si>
+    <t>desultory</t>
+  </si>
+  <si>
+    <t>discursive</t>
+  </si>
+  <si>
+    <t>rove</t>
+  </si>
+  <si>
+    <t>unprincipled</t>
+  </si>
+  <si>
+    <t>unscrupulous</t>
+  </si>
+  <si>
+    <t>carefree</t>
+  </si>
+  <si>
+    <t>catastrophe</t>
+  </si>
+  <si>
+    <t>不幸</t>
+  </si>
+  <si>
+    <t>disaster</t>
+  </si>
+  <si>
+    <t>tragedy</t>
+  </si>
+  <si>
+    <t>aftermath</t>
+  </si>
+  <si>
+    <t>apocalyptic</t>
+  </si>
+  <si>
+    <t>bale</t>
+  </si>
+  <si>
+    <t>calamity</t>
+  </si>
+  <si>
+    <t>cataclysm</t>
+  </si>
+  <si>
+    <t>infelicitous</t>
+  </si>
+  <si>
+    <t>infelicity</t>
+  </si>
+  <si>
+    <t>maelstrom</t>
+  </si>
+  <si>
+    <t>sinister</t>
+  </si>
+  <si>
+    <t>star-crossed</t>
+  </si>
+  <si>
+    <t>tribulation</t>
+  </si>
+  <si>
+    <t>untoward</t>
+  </si>
+  <si>
+    <t>tickler</t>
+  </si>
+  <si>
+    <t>adversity</t>
+  </si>
+  <si>
+    <t>misfortune</t>
+  </si>
+  <si>
+    <t>mishap</t>
+  </si>
+  <si>
+    <t>乏味</t>
+  </si>
+  <si>
+    <t>dreary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drone</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>humdrum</t>
+  </si>
+  <si>
+    <t>insipid</t>
+  </si>
+  <si>
+    <t>monotonous</t>
+  </si>
+  <si>
+    <t>nag</t>
+  </si>
+  <si>
+    <t>prosaic</t>
+  </si>
+  <si>
+    <t>stodgy</t>
+  </si>
+  <si>
+    <t>tautological</t>
+  </si>
+  <si>
+    <t>tedium</t>
+  </si>
+  <si>
+    <t>vapid</t>
+  </si>
+  <si>
+    <t>aridity</t>
+  </si>
+  <si>
+    <t>plodding</t>
+  </si>
+  <si>
+    <t>somnolence</t>
+  </si>
+  <si>
+    <t>尴尬</t>
+  </si>
+  <si>
+    <t>abash</t>
+  </si>
+  <si>
+    <t>coy</t>
+  </si>
+  <si>
+    <t>discomfiture</t>
+  </si>
+  <si>
+    <t>embarrass</t>
+  </si>
+  <si>
+    <t>monotony</t>
+  </si>
+  <si>
+    <t>monotone</t>
+  </si>
+  <si>
+    <t>lackadaisical</t>
+  </si>
+  <si>
+    <t>languid</t>
+  </si>
+  <si>
+    <t>listless</t>
+  </si>
+  <si>
+    <t>ennui</t>
+  </si>
+  <si>
+    <t>drab</t>
+  </si>
+  <si>
+    <t>corny</t>
+  </si>
+  <si>
+    <t>oring</t>
+  </si>
+  <si>
+    <t>insipidty</t>
+  </si>
+  <si>
+    <t>aridness</t>
+  </si>
+  <si>
+    <t>虚弱</t>
+  </si>
+  <si>
+    <t>debility</t>
+  </si>
+  <si>
+    <t>debilitating</t>
+  </si>
+  <si>
+    <t>effete</t>
+  </si>
+  <si>
+    <t>enfeeble</t>
+  </si>
+  <si>
+    <t>feeble</t>
+  </si>
+  <si>
+    <t>flagging</t>
+  </si>
+  <si>
+    <t>infirm</t>
+  </si>
+  <si>
+    <t>malaise</t>
+  </si>
+  <si>
+    <t>阴郁</t>
+  </si>
+  <si>
+    <t>dank</t>
+  </si>
+  <si>
+    <t>dorlorn</t>
+  </si>
+  <si>
+    <t>solitude</t>
+  </si>
+  <si>
+    <t>wail</t>
+  </si>
+  <si>
+    <t>whine</t>
+  </si>
+  <si>
+    <t>wistful</t>
+  </si>
+  <si>
+    <t>moodiness</t>
+  </si>
+  <si>
+    <t>somber</t>
+  </si>
+  <si>
+    <t>disconsolate</t>
+  </si>
+  <si>
+    <t>犯罪</t>
+  </si>
+  <si>
+    <t>extradite</t>
+  </si>
+  <si>
+    <t>repatriate</t>
+  </si>
+  <si>
+    <t>appropriate</t>
+  </si>
+  <si>
+    <t>bribe</t>
+  </si>
+  <si>
+    <t>contraband</t>
+  </si>
+  <si>
+    <t>defalcate</t>
+  </si>
+  <si>
+    <t>embezzlement</t>
+  </si>
+  <si>
+    <t>filch</t>
+  </si>
+  <si>
+    <t>peculate</t>
+  </si>
+  <si>
+    <t>pilfer</t>
+  </si>
+  <si>
+    <t>plagiarism</t>
+  </si>
+  <si>
+    <t>plagiarize</t>
+  </si>
+  <si>
+    <t>poach</t>
+  </si>
+  <si>
+    <t>purloin</t>
+  </si>
+  <si>
+    <t>rustler</t>
+  </si>
+  <si>
+    <t>shoplift</t>
+  </si>
+  <si>
+    <t>snitch</t>
+  </si>
+  <si>
+    <t>transgression</t>
+  </si>
+  <si>
+    <t>misdemeanor</t>
+  </si>
+  <si>
+    <t>extradition</t>
+  </si>
+  <si>
+    <t>buccaneer</t>
+  </si>
+  <si>
+    <t>一致</t>
   </si>
 </sst>
 </file>
@@ -1504,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C326"/>
+  <dimension ref="B3:C426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3489,41 +3810,65 @@
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>288</v>
+      </c>
       <c r="C250" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>288</v>
+      </c>
       <c r="C251" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>288</v>
+      </c>
       <c r="C252" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>288</v>
+      </c>
       <c r="C253" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>288</v>
+      </c>
       <c r="C254" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>288</v>
+      </c>
       <c r="C255" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>288</v>
+      </c>
       <c r="C256" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>288</v>
+      </c>
       <c r="C257" s="5" t="s">
         <v>306</v>
       </c>
@@ -3537,61 +3882,97 @@
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>308</v>
+      </c>
       <c r="C259" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>308</v>
+      </c>
       <c r="C260" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>308</v>
+      </c>
       <c r="C261" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>308</v>
+      </c>
       <c r="C262" s="5" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>308</v>
+      </c>
       <c r="C263" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>308</v>
+      </c>
       <c r="C264" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>308</v>
+      </c>
       <c r="C265" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>308</v>
+      </c>
       <c r="C266" s="5" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>308</v>
+      </c>
       <c r="C267" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>308</v>
+      </c>
       <c r="C268" s="5" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>308</v>
+      </c>
       <c r="C269" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>308</v>
+      </c>
       <c r="C270" s="5" t="s">
         <v>320</v>
       </c>
@@ -3605,196 +3986,313 @@
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>321</v>
+      </c>
       <c r="C272" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>321</v>
+      </c>
       <c r="C273" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>321</v>
+      </c>
       <c r="C274" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>321</v>
+      </c>
       <c r="C275" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>321</v>
+      </c>
       <c r="C276" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>321</v>
+      </c>
       <c r="C277" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>321</v>
+      </c>
       <c r="C278" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>321</v>
+      </c>
       <c r="C279" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>321</v>
+      </c>
       <c r="C280" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>321</v>
+      </c>
       <c r="C281" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>321</v>
+      </c>
       <c r="C282" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
+        <v>321</v>
+      </c>
       <c r="C283" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>321</v>
+      </c>
       <c r="C284" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>321</v>
+      </c>
       <c r="C285" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>321</v>
+      </c>
       <c r="C286" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>321</v>
+      </c>
       <c r="C287" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>321</v>
+      </c>
       <c r="C288" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>321</v>
+      </c>
       <c r="C289" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>321</v>
+      </c>
       <c r="C290" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>321</v>
+      </c>
       <c r="C291" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>321</v>
+      </c>
       <c r="C292" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>321</v>
+      </c>
       <c r="C293" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>321</v>
+      </c>
       <c r="C294" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>321</v>
+      </c>
       <c r="C295" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>321</v>
+      </c>
       <c r="C296" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>321</v>
+      </c>
       <c r="C297" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>321</v>
+      </c>
       <c r="C298" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>321</v>
+      </c>
       <c r="C299" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>321</v>
+      </c>
       <c r="C300" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>321</v>
+      </c>
       <c r="C301" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>321</v>
+      </c>
       <c r="C302" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>321</v>
+      </c>
       <c r="C303" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>321</v>
+      </c>
       <c r="C304" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>321</v>
+      </c>
       <c r="C305" s="5" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>321</v>
+      </c>
       <c r="C306" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>321</v>
+      </c>
       <c r="C307" s="5" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>321</v>
+      </c>
       <c r="C308" s="5" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>321</v>
+      </c>
       <c r="C309" s="5" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>321</v>
+      </c>
       <c r="C310" s="5" t="s">
         <v>361</v>
       </c>
@@ -3808,36 +4306,57 @@
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>376</v>
+      </c>
       <c r="C312" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>376</v>
+      </c>
       <c r="C313" s="5" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>376</v>
+      </c>
       <c r="C314" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>376</v>
+      </c>
       <c r="C315" s="5" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>376</v>
+      </c>
       <c r="C316" s="5" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>376</v>
+      </c>
       <c r="C317" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>376</v>
+      </c>
       <c r="C318" s="5" t="s">
         <v>369</v>
       </c>
@@ -3859,21 +4378,33 @@
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>376</v>
+      </c>
       <c r="C321" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>376</v>
+      </c>
       <c r="C322" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>376</v>
+      </c>
       <c r="C323" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>376</v>
+      </c>
       <c r="C324" s="5" t="s">
         <v>375</v>
       </c>
@@ -3887,8 +4418,787 @@
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>378</v>
+      </c>
       <c r="C326" s="5" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>378</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>378</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>378</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>378</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>378</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>386</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>386</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>386</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>386</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>386</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>386</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>386</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>395</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>395</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>395</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>395</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>395</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>395</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>395</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>395</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>395</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>395</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>395</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>395</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>395</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>395</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>395</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>395</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>395</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>395</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>395</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>414</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>414</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>414</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>414</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>414</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>414</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>414</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>414</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>414</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>414</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>414</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
+        <v>414</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>414</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>414</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>414</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>430</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
+        <v>430</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
+        <v>430</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
+        <v>430</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
+        <v>414</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>414</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>414</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>414</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>414</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>414</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>414</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
+        <v>414</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>414</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>414</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
+        <v>414</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
+        <v>446</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C389" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C390" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C391" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C392" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C393" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C394" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C395" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B396" t="s">
+        <v>455</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B397" t="s">
+        <v>455</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B398" t="s">
+        <v>455</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B399" t="s">
+        <v>455</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B400" t="s">
+        <v>455</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B401" t="s">
+        <v>455</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B402" t="s">
+        <v>455</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B403" t="s">
+        <v>455</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
+        <v>455</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
+        <v>465</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B406" t="s">
+        <v>465</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
+        <v>465</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
+        <v>465</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B409" t="s">
+        <v>465</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
+        <v>465</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B411" t="s">
+        <v>465</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
+        <v>465</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>465</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>465</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B415" t="s">
+        <v>465</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B416" t="s">
+        <v>465</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B417" t="s">
+        <v>465</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B418" t="s">
+        <v>465</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B419" t="s">
+        <v>465</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B420" t="s">
+        <v>465</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B421" t="s">
+        <v>465</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B422" t="s">
+        <v>465</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B423" t="s">
+        <v>465</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B424" t="s">
+        <v>465</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B425" t="s">
+        <v>465</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B426" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/GRE.xlsx
+++ b/GRE.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="644">
   <si>
     <t>Date</t>
   </si>
@@ -883,9 +883,6 @@
     <t>系统化</t>
   </si>
   <si>
-    <t>R.Browning.</t>
-  </si>
-  <si>
     <t>When the fight begins within himself, a man's worth something.</t>
   </si>
   <si>
@@ -1490,6 +1487,477 @@
   </si>
   <si>
     <t>一致</t>
+  </si>
+  <si>
+    <t>fulfil</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>asymmetric</t>
+  </si>
+  <si>
+    <t>coincide</t>
+  </si>
+  <si>
+    <t>commensurate</t>
+  </si>
+  <si>
+    <t>preponderant</t>
+  </si>
+  <si>
+    <t>congruent</t>
+  </si>
+  <si>
+    <t>congruous</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>correspondent</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>symmetry</t>
+  </si>
+  <si>
+    <t>tally</t>
+  </si>
+  <si>
+    <t>unification</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>unify</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>resemblance</t>
+  </si>
+  <si>
+    <t>counterbalance</t>
+  </si>
+  <si>
+    <t>counterpoise</t>
+  </si>
+  <si>
+    <t>equilibrium</t>
+  </si>
+  <si>
+    <t>homogenize</t>
+  </si>
+  <si>
+    <t>interchangeable</t>
+  </si>
+  <si>
+    <t>jibe</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>congruence</t>
+  </si>
+  <si>
+    <t>concurrent</t>
+  </si>
+  <si>
+    <t>equipoise</t>
+  </si>
+  <si>
+    <t>aberrant</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>anomalous</t>
+  </si>
+  <si>
+    <t>apparition</t>
+  </si>
+  <si>
+    <t>bizarre</t>
+  </si>
+  <si>
+    <t>deviant</t>
+  </si>
+  <si>
+    <t>dysfunctional</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>exotic</t>
+  </si>
+  <si>
+    <t>farce</t>
+  </si>
+  <si>
+    <t>freak</t>
+  </si>
+  <si>
+    <t>grotesque</t>
+  </si>
+  <si>
+    <t>heterodox</t>
+  </si>
+  <si>
+    <t>miracle</t>
+  </si>
+  <si>
+    <t>miraculous</t>
+  </si>
+  <si>
+    <t>misshapen</t>
+  </si>
+  <si>
+    <t>novelty</t>
+  </si>
+  <si>
+    <t>offbeat</t>
+  </si>
+  <si>
+    <t>outlandish</t>
+  </si>
+  <si>
+    <t>preternatural</t>
+  </si>
+  <si>
+    <t>prodigy</t>
+  </si>
+  <si>
+    <t>singularity</t>
+  </si>
+  <si>
+    <t>unearthly</t>
+  </si>
+  <si>
+    <t>vagary</t>
+  </si>
+  <si>
+    <t>amble</t>
+  </si>
+  <si>
+    <t>悠闲</t>
+  </si>
+  <si>
+    <t>dalliance</t>
+  </si>
+  <si>
+    <t>dawdle</t>
+  </si>
+  <si>
+    <t>debauchery</t>
+  </si>
+  <si>
+    <t>feckless</t>
+  </si>
+  <si>
+    <t>loiter</t>
+  </si>
+  <si>
+    <t>peripatetic</t>
+  </si>
+  <si>
+    <t>promenade</t>
+  </si>
+  <si>
+    <t>ramble</t>
+  </si>
+  <si>
+    <t>saunter</t>
+  </si>
+  <si>
+    <t>stroll</t>
+  </si>
+  <si>
+    <t>tarry</t>
+  </si>
+  <si>
+    <t>traipse</t>
+  </si>
+  <si>
+    <t>vagrancy</t>
+  </si>
+  <si>
+    <t>vegetate</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>有理</t>
+  </si>
+  <si>
+    <t>causal</t>
+  </si>
+  <si>
+    <t>incontrovertible</t>
+  </si>
+  <si>
+    <t>indubitable</t>
+  </si>
+  <si>
+    <t>justifiable</t>
+  </si>
+  <si>
+    <t>justification</t>
+  </si>
+  <si>
+    <t>justify</t>
+  </si>
+  <si>
+    <t>merit</t>
+  </si>
+  <si>
+    <t>merited</t>
+  </si>
+  <si>
+    <t>tenable</t>
+  </si>
+  <si>
+    <t>undisputable</t>
+  </si>
+  <si>
+    <t>unexceptionable</t>
+  </si>
+  <si>
+    <t>unimpeachable</t>
+  </si>
+  <si>
+    <t>warranted</t>
+  </si>
+  <si>
+    <t>plausibility</t>
+  </si>
+  <si>
+    <t>commonplace</t>
+  </si>
+  <si>
+    <t>demotic</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>orthodox</t>
+  </si>
+  <si>
+    <t>unexceptional</t>
+  </si>
+  <si>
+    <t>窒息</t>
+  </si>
+  <si>
+    <t>asphyxia</t>
+  </si>
+  <si>
+    <t>asphyxiate</t>
+  </si>
+  <si>
+    <t>respiration</t>
+  </si>
+  <si>
+    <t>strangulation</t>
+  </si>
+  <si>
+    <t>throttle</t>
+  </si>
+  <si>
+    <t>变化</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>adaptable</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>ameliorate</t>
+  </si>
+  <si>
+    <t>amend</t>
+  </si>
+  <si>
+    <t>budge</t>
+  </si>
+  <si>
+    <t>caprice</t>
+  </si>
+  <si>
+    <t>capricious</t>
+  </si>
+  <si>
+    <t>chasten</t>
+  </si>
+  <si>
+    <t>chaste</t>
+  </si>
+  <si>
+    <t>checkered</t>
+  </si>
+  <si>
+    <t>convertible</t>
+  </si>
+  <si>
+    <t>deteriorate</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>emend</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>erratic</t>
+  </si>
+  <si>
+    <t>fickle</t>
+  </si>
+  <si>
+    <t>fluctuate</t>
+  </si>
+  <si>
+    <t>flux</t>
+  </si>
+  <si>
+    <t>fusion</t>
+  </si>
+  <si>
+    <t>garble</t>
+  </si>
+  <si>
+    <t>garbled</t>
+  </si>
+  <si>
+    <t>degradation</t>
+  </si>
+  <si>
+    <t>inconstancy</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>innovative</t>
+  </si>
+  <si>
+    <t>malleable</t>
+  </si>
+  <si>
+    <t>mend</t>
+  </si>
+  <si>
+    <t>mercurial</t>
+  </si>
+  <si>
+    <t>metamorphose</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>optimization</t>
+  </si>
+  <si>
+    <t>protean</t>
+  </si>
+  <si>
+    <t>recant</t>
+  </si>
+  <si>
+    <t>recast</t>
+  </si>
+  <si>
+    <t>reclaim</t>
+  </si>
+  <si>
+    <t>rectify</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>redress</t>
+  </si>
+  <si>
+    <t>reshuffle</t>
+  </si>
+  <si>
+    <t>revise</t>
+  </si>
+  <si>
+    <t>tamper</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>transmute</t>
+  </si>
+  <si>
+    <t>upheaval</t>
+  </si>
+  <si>
+    <t>veer</t>
+  </si>
+  <si>
+    <t>vicissitude</t>
+  </si>
+  <si>
+    <t>vicissitudinous</t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>whim</t>
+  </si>
+  <si>
+    <t>whimsical</t>
+  </si>
+  <si>
+    <t>whimsy</t>
+  </si>
+  <si>
+    <t>distract</t>
+  </si>
+  <si>
+    <t>interchange</t>
+  </si>
+  <si>
+    <t>C.Morley</t>
+  </si>
+  <si>
+    <t>R.Browning</t>
+  </si>
+  <si>
+    <t>There is only one success -- to be able to spend your life in your own way.</t>
+  </si>
+  <si>
+    <t>清楚</t>
+  </si>
+  <si>
+    <t>demystify</t>
+  </si>
+  <si>
+    <t>distinct</t>
   </si>
 </sst>
 </file>
@@ -1825,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C426"/>
+  <dimension ref="B3:C572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+    <sheetView tabSelected="1" topLeftCell="A557" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C573" sqref="C573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2110,7 +2578,7 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -3739,1466 +4207,2634 @@
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
+        <v>287</v>
+      </c>
+      <c r="C241" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
+        <v>307</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
+        <v>320</v>
+      </c>
+      <c r="C271" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
+        <v>377</v>
+      </c>
+      <c r="C325" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
+        <v>385</v>
+      </c>
+      <c r="C332" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
+        <v>394</v>
+      </c>
+      <c r="C340" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
+        <v>413</v>
+      </c>
+      <c r="C358" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
+        <v>429</v>
+      </c>
+      <c r="C373" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
+        <v>445</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C389" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C390" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C391" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C392" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C393" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C394" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C395" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
+        <v>454</v>
+      </c>
+      <c r="C396" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
+        <v>464</v>
+      </c>
+      <c r="C405" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="419" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B422" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="425" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
+        <v>486</v>
+      </c>
+      <c r="C426" s="5" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B427" t="s">
+        <v>486</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B428" t="s">
+        <v>486</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B429" t="s">
+        <v>486</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B430" t="s">
+        <v>486</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B431" t="s">
+        <v>486</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B432" t="s">
+        <v>486</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B433" t="s">
+        <v>486</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B434" t="s">
+        <v>486</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B435" t="s">
+        <v>486</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
+        <v>486</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B437" t="s">
+        <v>486</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B438" t="s">
+        <v>486</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B439" t="s">
+        <v>486</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B440" t="s">
+        <v>486</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B441" t="s">
+        <v>486</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B442" t="s">
+        <v>486</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B443" t="s">
+        <v>486</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B444" t="s">
+        <v>486</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B445" t="s">
+        <v>486</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B446" t="s">
+        <v>486</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B447" t="s">
+        <v>486</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B448" t="s">
+        <v>486</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B449" t="s">
+        <v>486</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B450" t="s">
+        <v>486</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B451" t="s">
+        <v>486</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B452" t="s">
+        <v>486</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B453" t="s">
+        <v>486</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B454" t="s">
+        <v>516</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B455" t="s">
+        <v>516</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B456" t="s">
+        <v>516</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B457" t="s">
+        <v>516</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B458" t="s">
+        <v>516</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B459" t="s">
+        <v>516</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B460" t="s">
+        <v>516</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B461" t="s">
+        <v>516</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B462" t="s">
+        <v>516</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B463" t="s">
+        <v>516</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B464" t="s">
+        <v>516</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B465" t="s">
+        <v>516</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B466" t="s">
+        <v>516</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B467" t="s">
+        <v>516</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B468" t="s">
+        <v>516</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B469" t="s">
+        <v>516</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B470" t="s">
+        <v>516</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B471" t="s">
+        <v>516</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B472" t="s">
+        <v>516</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B473" t="s">
+        <v>516</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B474" t="s">
+        <v>516</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B475" t="s">
+        <v>516</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B476" t="s">
+        <v>516</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B477" t="s">
+        <v>540</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B478" t="s">
+        <v>540</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B479" t="s">
+        <v>540</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B480" t="s">
+        <v>540</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B481" t="s">
+        <v>540</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B482" t="s">
+        <v>540</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483" t="s">
+        <v>540</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484" t="s">
+        <v>540</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B485" t="s">
+        <v>540</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B486" t="s">
+        <v>540</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487" t="s">
+        <v>540</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B488" t="s">
+        <v>540</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489" t="s">
+        <v>540</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B490" t="s">
+        <v>540</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B491" t="s">
+        <v>540</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B492" t="s">
+        <v>540</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B493" t="s">
+        <v>556</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494" t="s">
+        <v>556</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" t="s">
+        <v>556</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B496" t="s">
+        <v>556</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B497" t="s">
+        <v>556</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B498" t="s">
+        <v>556</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B499" t="s">
+        <v>556</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B500" t="s">
+        <v>556</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B501" t="s">
+        <v>556</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B502" t="s">
+        <v>556</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B503" t="s">
+        <v>556</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B504" t="s">
+        <v>556</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B505" t="s">
+        <v>556</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B506" t="s">
+        <v>556</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B507" t="s">
+        <v>573</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B508" t="s">
+        <v>573</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B509" t="s">
+        <v>573</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B510" t="s">
+        <v>573</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B511" t="s">
+        <v>576</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B512" t="s">
+        <v>576</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B513" t="s">
+        <v>576</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B514" t="s">
+        <v>576</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B515" t="s">
+        <v>576</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B516" t="s">
+        <v>582</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B517" t="s">
+        <v>582</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B518" t="s">
+        <v>582</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B519" t="s">
+        <v>582</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B520" t="s">
+        <v>582</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B521" t="s">
+        <v>582</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B522" t="s">
+        <v>582</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B523" t="s">
+        <v>582</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B524" t="s">
+        <v>582</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B525" t="s">
+        <v>582</v>
+      </c>
+      <c r="C525" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B526" t="s">
+        <v>582</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B527" t="s">
+        <v>582</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B528" t="s">
+        <v>582</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B529" t="s">
+        <v>582</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B530" t="s">
+        <v>582</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B531" t="s">
+        <v>582</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B532" t="s">
+        <v>582</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B533" t="s">
+        <v>582</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B534" t="s">
+        <v>582</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B535" t="s">
+        <v>582</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B536" t="s">
+        <v>582</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B537" t="s">
+        <v>582</v>
+      </c>
+      <c r="C537" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B538" t="s">
+        <v>582</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B539" t="s">
+        <v>582</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B540" t="s">
+        <v>582</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B541" t="s">
+        <v>582</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B542" t="s">
+        <v>582</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B543" t="s">
+        <v>582</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B544" t="s">
+        <v>582</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B545" t="s">
+        <v>582</v>
+      </c>
+      <c r="C545" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546" t="s">
+        <v>582</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B547" t="s">
+        <v>582</v>
+      </c>
+      <c r="C547" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B548" t="s">
+        <v>582</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B549" t="s">
+        <v>582</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B550" t="s">
+        <v>582</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B551" t="s">
+        <v>582</v>
+      </c>
+      <c r="C551" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B552" t="s">
+        <v>582</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B553" t="s">
+        <v>582</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B554" t="s">
+        <v>582</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B555" t="s">
+        <v>582</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B556" t="s">
+        <v>582</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B557" t="s">
+        <v>582</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B558" t="s">
+        <v>582</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B559" t="s">
+        <v>582</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B560" t="s">
+        <v>582</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B561" t="s">
+        <v>582</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B562" t="s">
+        <v>582</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B563" t="s">
+        <v>582</v>
+      </c>
+      <c r="C563" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B564" t="s">
+        <v>582</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B565" t="s">
+        <v>582</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="566" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B566" t="s">
+        <v>582</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="567" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B567" t="s">
+        <v>582</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B568" t="s">
+        <v>582</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B569" t="s">
+        <v>582</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B570" t="s">
+        <v>582</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B571" t="s">
+        <v>641</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C572" s="5" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5593,20 +7229,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" t="s">
         <v>285</v>
       </c>
-      <c r="C2" t="s">
-        <v>286</v>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C3" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/GRE.xlsx
+++ b/GRE.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="645">
   <si>
     <t>Date</t>
   </si>
@@ -1958,6 +1958,9 @@
   </si>
   <si>
     <t>distinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2293,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C572"/>
+  <dimension ref="B3:D572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C573" sqref="C573"/>
+    <sheetView tabSelected="1" topLeftCell="A521" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C525" sqref="C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6360,7 +6363,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>576</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>576</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>576</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>582</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>582</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>582</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>582</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>582</v>
       </c>
@@ -6424,15 +6427,18 @@
         <v>587</v>
       </c>
     </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>582</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D521" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>582</v>
       </c>
@@ -6440,7 +6446,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B523" t="s">
         <v>582</v>
       </c>
@@ -6448,7 +6454,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B524" t="s">
         <v>582</v>
       </c>
@@ -6456,7 +6462,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B525" t="s">
         <v>582</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B526" t="s">
         <v>582</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B527" t="s">
         <v>582</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B528" t="s">
         <v>582</v>
       </c>
